--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgsi\IdeaProjects\SE2324_63191_63324-62654_63069_62551_62482\Project_Management\Sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFAFF4A-13F4-4213-A372-7B805159112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Backlog</t>
   </si>
@@ -29,144 +38,560 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>As a scrum team, we want to define user stories so that we can define waht to add in the project</t>
+  </si>
+  <si>
+    <t>As a scrum team, we want to know the game better</t>
+  </si>
+  <si>
+    <t>As a scrum team, we want to prepare the project</t>
+  </si>
+  <si>
+    <t>Set up the gitHub repository.(Rodrigo Fernandes)(*)</t>
+  </si>
+  <si>
+    <t>Set up the game.(*)</t>
+  </si>
+  <si>
+    <t>Test the game.(*)</t>
+  </si>
+  <si>
+    <t>Prepare the structure of future scrums, burndown charts and sprints(Rodrigo Suzana)(Tiago Sousa)</t>
+  </si>
+  <si>
+    <t>* - everyone</t>
+  </si>
+  <si>
+    <t>Create User Stories.(*)(*)</t>
+  </si>
+  <si>
+    <t>First quick look at the code.(*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF6AA84F"/>
           <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Folha1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Folha1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:F1" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F7" headerRowCount="0" headerRowDxfId="1" dataDxfId="9" totalsRowDxfId="0" tableBorderDxfId="8">
   <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="Folha1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
+  <tableStyleInfo name="Folha1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -356,107 +781,147 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="57.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="2" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>